--- a/biology/Botanique/K.Brandegee/K.Brandegee.xlsx
+++ b/biology/Botanique/K.Brandegee/K.Brandegee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary Katharine née Layne, épouse Curran puis Brandegee est une botaniste américaine, née le 28 octobre 1844 à Tennessee et morte le 3 avril 1920 à Berkeley.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la cadette d’une fratrie de dix enfants de Marshall Layne et de Mary née Morris. Après de nombreux déménagements, la famille Layne s’installe près de Folsom en Californie. En 1866, elle se marie avec Hugh Curran, policier d’origine irlandaise.
 Après le décès de son mari en 1874, Mary part vivre à San Francisco et est embauchée au département de médecine de l’université de Californie. Elle est diplômée en 1878 et commence à s’intéresser à la materia medica et, par là, découvre la botanique. Son professeur, Hans Hermann Behr (1818-1904), lui permet de rencontrer des naturalistes de la California Academy of Sciences. Elle exerce la fonction de conservateur de botanique pour cette Académie de 1883 à 1893.
@@ -544,7 +558,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces lui sont dédiées comme Astragalus layneae Greene, 1885 ou  Packera layneae (Greene) W.A.Weber &amp; Á.Löve, 1883 par Edward Lee Greene (1843-1915). Du fait de ses deux mariages, elle est l'une des rares botanistes à posséder deux abréviations officielles.
 </t>
